--- a/biology/Botanique/Acide_okadaïque/Acide_okadaïque.xlsx
+++ b/biology/Botanique/Acide_okadaïque/Acide_okadaïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide okadaïque est un polyéther de l'acide gras C38[réf. nécessaire].
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire, étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte ce nom parce qu'il a d'abord été identifié et isolé dans une éponge Halichondria okadai[2]. Il a ensuite été isolé dans une autre éponge Halichondria malanodocia, comme cytotoxine avant qu'on ne se rende compte qu'il était concentré dans certains organismes (coquillages, éponges) mais qu'il était initialement synthétisé par des dinoflagellés marins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte ce nom parce qu'il a d'abord été identifié et isolé dans une éponge Halichondria okadai. Il a ensuite été isolé dans une autre éponge Halichondria malanodocia, comme cytotoxine avant qu'on ne se rende compte qu'il était concentré dans certains organismes (coquillages, éponges) mais qu'il était initialement synthétisé par des dinoflagellés marins.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Effets toxiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'administration d'acide okadaïque augmente fortement la sécrétion d'une neurotrophine (nerve growth factor ou NGF), et promeut aussi l'augmentation de transcription de la NGF ainsi qu'une stabilité de l'ARNm dans des cultures primaires d'astrocytes corticaux[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration d'acide okadaïque augmente fortement la sécrétion d'une neurotrophine (nerve growth factor ou NGF), et promeut aussi l'augmentation de transcription de la NGF ainsi qu'une stabilité de l'ARNm dans des cultures primaires d'astrocytes corticaux
 La cytotoxicité de l'acide okadaïque mesurée en EC50 contre les lignées cellulaires, le P388 et L1210 sont respectivement de 1,7 et 17 nanomoles.[pas clair]
 De plus, l'acide okadaïque inhibe fortement les protéines sérine / thréonine phosphatase 1, 2A et 2B L'effet inhibiteur de l'acide okadaïque est le plus fort pour la 2A, puis pour la 1 et ensuite la 2B.
-La constante de dissociation de l'inhibition sur la protéine sérine / thréonine phosphatase 2A est de 30 picomole[4].
+La constante de dissociation de l'inhibition sur la protéine sérine / thréonine phosphatase 2A est de 30 picomole.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Synergies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">IFREMER et l'université de Bordeaux ont constaté que les mollusques responsables des intoxications étaient également souvent pollués par les métaux (cadmium, plomb, mercure, aluminium, cuivre, à des taux dépassant parfois les concentrations hebdomadaires tolérables ;
-Des tests en laboratoire ont montré[5] que ces métaux - aux taux où ils sont présents dans les moules) aggravent la cytotoxicité de l'acide okadaïque, à des doses de quelques nanogrammes, c'est-à-dire bien inférieur aux taux limitant la vente (2 µg/g de chair fraiche)
+Des tests en laboratoire ont montré que ces métaux - aux taux où ils sont présents dans les moules) aggravent la cytotoxicité de l'acide okadaïque, à des doses de quelques nanogrammes, c'est-à-dire bien inférieur aux taux limitant la vente (2 µg/g de chair fraiche)
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>On a récemment montré qu'outre son action délétère sur le système digestif, l'acide okadaïque est[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On a récemment montré qu'outre son action délétère sur le système digestif, l'acide okadaïque est :
 cytotoxique
 un promoteur de tumeur,
 un inhibiteur de synthèse protéique et de l'ADN,
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Symptômes et conséquences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'absorption de faibles doses d'acide okadaïque provoque deux types de symptômes :
 troubles neurologiques
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les intoxications repérées le sont dans presque tous les pays littoraux de l'hémisphère nord.
 En France, elles ont été d'abord repérées dans la baie de la Vilaine et sur la côte normande (3300 intoxication en 1983), puis en Méditerranée (400 cas enregistrés en 1985).
@@ -692,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acide_okada%C3%AFque</t>
+          <t>Acide_okadaïque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -710,7 +734,9 @@
           <t>Valeurs réglementaires et surveillance</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles étaient de 160 µg/kg.[réf. nécessaire]
 Elles sont maintenant en France de 40 ng/kg de chair fraiche pour les fruits de mer.[réf. nécessaire]
